--- a/results/synthetic_constraint_0.1_opt_constrained/k=0.1/CSG/dataset_10/results_excel_13-9-22_synthetic_constrained_1_.xlsx
+++ b/results/synthetic_constraint_0.1_opt_constrained/k=0.1/CSG/dataset_10/results_excel_13-9-22_synthetic_constrained_1_.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Konstantina\Desktop\HDrop20-Master-Thesis-Experiments\results\synthetic_constraint_0.1_opt_constrained\k=0.1\CSG\dataset_10\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AAA32C9-156D-48CF-B65B-F95CF909A840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
   <si>
     <t>dataset</t>
   </si>
@@ -182,13 +201,25 @@
   </si>
   <si>
     <t>Official_Experiment_CSG_dataset_10_instance_30_29_exec</t>
+  </si>
+  <si>
+    <t>Average of SW(S*)/SW(OPT)</t>
+  </si>
+  <si>
+    <t>Average of SC(S*)/SC(OPT)</t>
+  </si>
+  <si>
+    <t>Worst of SW(S*)/SW(OPT)</t>
+  </si>
+  <si>
+    <t>Worst of SC(S*)/SC(OPT)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +233,15 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -240,22 +280,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -297,7 +348,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -329,9 +380,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -363,6 +432,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -538,14 +625,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,7 +711,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -642,19 +731,19 @@
         <v>5</v>
       </c>
       <c r="G2">
-        <v>826.9910076585455</v>
+        <v>826.99100765854553</v>
       </c>
       <c r="H2">
-        <v>164.805640853598</v>
+        <v>164.80564085359799</v>
       </c>
       <c r="I2">
-        <v>662.1853668049475</v>
+        <v>662.18536680494753</v>
       </c>
       <c r="J2">
         <v>0.1</v>
       </c>
       <c r="K2">
-        <v>662.1853668049474</v>
+        <v>662.18536680494742</v>
       </c>
       <c r="L2">
         <v>5</v>
@@ -666,22 +755,22 @@
         <v>1</v>
       </c>
       <c r="O2">
-        <v>826.9910076585455</v>
+        <v>826.99100765854553</v>
       </c>
       <c r="P2">
-        <v>164.8056408535981</v>
+        <v>164.80564085359811</v>
       </c>
       <c r="Q2">
         <v>1.613026976146464</v>
       </c>
       <c r="R2">
-        <v>396.349422286988</v>
+        <v>396.34942228698799</v>
       </c>
       <c r="S2">
-        <v>5.017977560568979</v>
+        <v>5.0179775605689789</v>
       </c>
       <c r="T2">
-        <v>5.017977560568981</v>
+        <v>5.0179775605689807</v>
       </c>
       <c r="U2">
         <v>1.613026976146464</v>
@@ -690,19 +779,19 @@
         <v>396.3494222869881</v>
       </c>
       <c r="W2">
-        <v>282.1084700126185</v>
+        <v>282.10847001261851</v>
       </c>
       <c r="X2">
-        <v>944.293836817566</v>
+        <v>944.29383681756599</v>
       </c>
       <c r="Y2">
-        <v>282.1084700126186</v>
+        <v>282.10847001261862</v>
       </c>
       <c r="Z2">
-        <v>0.9999999999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
+        <v>0.99999999999999956</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -722,13 +811,13 @@
         <v>5</v>
       </c>
       <c r="G3">
-        <v>912.9413994107639</v>
+        <v>912.94139941076389</v>
       </c>
       <c r="H3">
         <v>126.0916431760056</v>
       </c>
       <c r="I3">
-        <v>786.8497562347583</v>
+        <v>786.84975623475827</v>
       </c>
       <c r="J3">
         <v>0.1</v>
@@ -743,46 +832,46 @@
         <v>0.1</v>
       </c>
       <c r="N3">
-        <v>0.9787002735856339</v>
+        <v>0.97870027358563394</v>
       </c>
       <c r="O3">
-        <v>929.5178375631195</v>
+        <v>929.51783756311954</v>
       </c>
       <c r="P3">
         <v>125.543651112756</v>
       </c>
       <c r="Q3">
-        <v>2.0020124817414</v>
+        <v>2.0020124817413998</v>
       </c>
       <c r="R3">
-        <v>552.6342299192385</v>
+        <v>552.63422991923846</v>
       </c>
       <c r="S3">
-        <v>7.403941412603023</v>
+        <v>7.4039414126030234</v>
       </c>
       <c r="T3">
-        <v>7.240300597371313</v>
+        <v>7.2403005973713128</v>
       </c>
       <c r="U3">
         <v>1.979662724509675</v>
       </c>
       <c r="V3">
-        <v>537.2308303670453</v>
+        <v>537.23083036704531</v>
       </c>
       <c r="W3">
-        <v>168.3906744118551</v>
+        <v>168.39067441185509</v>
       </c>
       <c r="X3">
-        <v>955.2404306466134</v>
+        <v>955.24043064661339</v>
       </c>
       <c r="Y3">
-        <v>151.2662441962499</v>
+        <v>151.26624419624989</v>
       </c>
       <c r="Z3">
         <v>1.113207214911665</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -802,7 +891,7 @@
         <v>5</v>
       </c>
       <c r="G4">
-        <v>996.6483001965246</v>
+        <v>996.64830019652459</v>
       </c>
       <c r="H4">
         <v>104.5202190496242</v>
@@ -814,7 +903,7 @@
         <v>0.1</v>
       </c>
       <c r="K4">
-        <v>911.580570287958</v>
+        <v>911.58057028795804</v>
       </c>
       <c r="L4">
         <v>5</v>
@@ -823,25 +912,25 @@
         <v>0.1</v>
       </c>
       <c r="N4">
-        <v>0.9786607023283604</v>
+        <v>0.97866070232836044</v>
       </c>
       <c r="O4">
         <v>1040.112745087449</v>
       </c>
       <c r="P4">
-        <v>128.5321747994915</v>
+        <v>128.53217479949149</v>
       </c>
       <c r="Q4">
-        <v>2.090905134459322</v>
+        <v>2.0909051344593221</v>
       </c>
       <c r="R4">
-        <v>642.8319860564782</v>
+        <v>642.83198605647817</v>
       </c>
       <c r="S4">
         <v>8.092236412478135</v>
       </c>
       <c r="T4">
-        <v>9.535459351872722</v>
+        <v>9.5354593518727224</v>
       </c>
       <c r="U4">
         <v>2.255017413232598</v>
@@ -850,19 +939,19 @@
         <v>656.4331671551123</v>
       </c>
       <c r="W4">
-        <v>233.580473471828</v>
+        <v>233.58047347182799</v>
       </c>
       <c r="X4">
-        <v>1125.708554618728</v>
+        <v>1125.7085546187279</v>
       </c>
       <c r="Y4">
-        <v>214.1279843307703</v>
+        <v>214.12798433077029</v>
       </c>
       <c r="Z4">
-        <v>1.090845151332526</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26">
+        <v>1.0908451513325259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -882,19 +971,19 @@
         <v>5</v>
       </c>
       <c r="G5">
-        <v>903.6742111678811</v>
+        <v>903.67421116788114</v>
       </c>
       <c r="H5">
-        <v>162.6668458581483</v>
+        <v>162.66684585814829</v>
       </c>
       <c r="I5">
-        <v>741.0073653097328</v>
+        <v>741.00736530973279</v>
       </c>
       <c r="J5">
         <v>0.1</v>
       </c>
       <c r="K5">
-        <v>803.650222023701</v>
+        <v>803.65022202370096</v>
       </c>
       <c r="L5">
         <v>5</v>
@@ -903,46 +992,46 @@
         <v>0.1</v>
       </c>
       <c r="N5">
-        <v>0.9220520880884909</v>
+        <v>0.92205208808849093</v>
       </c>
       <c r="O5">
-        <v>963.4324098575811</v>
+        <v>963.43240985758109</v>
       </c>
       <c r="P5">
-        <v>159.7821878338804</v>
+        <v>159.78218783388041</v>
       </c>
       <c r="Q5">
-        <v>1.796690773003453</v>
+        <v>1.7966907730034529</v>
       </c>
       <c r="R5">
-        <v>516.571039452263</v>
+        <v>516.57103945226299</v>
       </c>
       <c r="S5">
-        <v>6.029660895989394</v>
+        <v>6.0296608959893936</v>
       </c>
       <c r="T5">
-        <v>5.55536812926169</v>
+        <v>5.5553681292616899</v>
       </c>
       <c r="U5">
         <v>1.714764690789935</v>
       </c>
       <c r="V5">
-        <v>462.0720016700112</v>
+        <v>462.07200167001122</v>
       </c>
       <c r="W5">
-        <v>304.1855283792137</v>
+        <v>304.18552837921368</v>
       </c>
       <c r="X5">
         <v>1045.192893688946</v>
       </c>
       <c r="Y5">
-        <v>241.5426716652455</v>
+        <v>241.54267166524551</v>
       </c>
       <c r="Z5">
-        <v>1.259344886276596</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26">
+        <v>1.2593448862765959</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -962,19 +1051,19 @@
         <v>4</v>
       </c>
       <c r="G6">
-        <v>956.0829424484776</v>
+        <v>956.08294244847764</v>
       </c>
       <c r="H6">
         <v>116.0337170618416</v>
       </c>
       <c r="I6">
-        <v>840.0492253866361</v>
+        <v>840.04922538663607</v>
       </c>
       <c r="J6">
         <v>0.08</v>
       </c>
       <c r="K6">
-        <v>848.7062434516238</v>
+        <v>848.70624345162378</v>
       </c>
       <c r="L6">
         <v>5</v>
@@ -983,46 +1072,46 @@
         <v>0.1</v>
       </c>
       <c r="N6">
-        <v>0.9897997474016683</v>
+        <v>0.98979974740166832</v>
       </c>
       <c r="O6">
-        <v>987.1771066683214</v>
+        <v>987.17710666832136</v>
       </c>
       <c r="P6">
-        <v>138.4708632166977</v>
+        <v>138.47086321669769</v>
       </c>
       <c r="Q6">
         <v>1.964189533107382</v>
       </c>
       <c r="R6">
-        <v>576.723223281042</v>
+        <v>576.72322328104201</v>
       </c>
       <c r="S6">
-        <v>7.129132322396623</v>
+        <v>7.1291323223966234</v>
       </c>
       <c r="T6">
-        <v>8.239699344794078</v>
+        <v>8.2396993447940776</v>
       </c>
       <c r="U6">
-        <v>2.108963855973431</v>
+        <v>2.1089638559734309</v>
       </c>
       <c r="V6">
-        <v>595.3383100289645</v>
+        <v>595.33831002896454</v>
       </c>
       <c r="W6">
-        <v>187.9794668612097</v>
+        <v>187.97946686120969</v>
       </c>
       <c r="X6">
         <v>1028.028692247846</v>
       </c>
       <c r="Y6">
-        <v>179.322448796222</v>
+        <v>179.32244879622201</v>
       </c>
       <c r="Z6">
         <v>1.048276265035982</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1042,19 +1131,19 @@
         <v>5</v>
       </c>
       <c r="G7">
-        <v>957.2257829478036</v>
+        <v>957.22578294780362</v>
       </c>
       <c r="H7">
         <v>125.2991440632248</v>
       </c>
       <c r="I7">
-        <v>831.9266388845788</v>
+        <v>831.92663888457878</v>
       </c>
       <c r="J7">
         <v>0.1</v>
       </c>
       <c r="K7">
-        <v>889.6043142141971</v>
+        <v>889.60431421419707</v>
       </c>
       <c r="L7">
         <v>5</v>
@@ -1063,7 +1152,7 @@
         <v>0.1</v>
       </c>
       <c r="N7">
-        <v>0.9351647980927723</v>
+        <v>0.93516479809277231</v>
       </c>
       <c r="O7">
         <v>1015.337390270881</v>
@@ -1072,37 +1161,37 @@
         <v>125.733076056684</v>
       </c>
       <c r="Q7">
-        <v>2.088815024569283</v>
+        <v>2.0888150245692829</v>
       </c>
       <c r="R7">
-        <v>626.9711758616828</v>
+        <v>626.97117586168281</v>
       </c>
       <c r="S7">
-        <v>8.075340412519122</v>
+        <v>8.0753404125191217</v>
       </c>
       <c r="T7">
-        <v>7.639523718252983</v>
+        <v>7.6395237182529829</v>
       </c>
       <c r="U7">
         <v>2.033335260692374</v>
       </c>
       <c r="V7">
-        <v>577.1514711262503</v>
+        <v>577.15147112625027</v>
       </c>
       <c r="W7">
-        <v>218.6316765745337</v>
+        <v>218.63167657453371</v>
       </c>
       <c r="X7">
         <v>1050.558315459112</v>
       </c>
       <c r="Y7">
-        <v>160.9540012449154</v>
+        <v>160.95400124491539</v>
       </c>
       <c r="Z7">
-        <v>1.35834881322306</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26">
+        <v>1.3583488132230599</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1122,19 +1211,19 @@
         <v>5</v>
       </c>
       <c r="G8">
-        <v>991.3786179361475</v>
+        <v>991.37861793614752</v>
       </c>
       <c r="H8">
         <v>119.0817021677646</v>
       </c>
       <c r="I8">
-        <v>872.2969157683829</v>
+        <v>872.29691576838286</v>
       </c>
       <c r="J8">
         <v>0.1</v>
       </c>
       <c r="K8">
-        <v>872.2969157683831</v>
+        <v>872.29691576838309</v>
       </c>
       <c r="L8">
         <v>5</v>
@@ -1143,46 +1232,46 @@
         <v>0.1</v>
       </c>
       <c r="N8">
-        <v>0.9999999999999998</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="O8">
-        <v>991.3786179361476</v>
+        <v>991.37861793614763</v>
       </c>
       <c r="P8">
         <v>119.0817021677646</v>
       </c>
       <c r="Q8">
-        <v>2.119286687442573</v>
+        <v>2.1192866874425729</v>
       </c>
       <c r="R8">
-        <v>619.9286496462381</v>
+        <v>619.92864964623811</v>
       </c>
       <c r="S8">
-        <v>8.325196901699258</v>
+        <v>8.3251969016992575</v>
       </c>
       <c r="T8">
-        <v>8.325196901699256</v>
+        <v>8.3251969016992557</v>
       </c>
       <c r="U8">
-        <v>2.119286687442573</v>
+        <v>2.1192866874425729</v>
       </c>
       <c r="V8">
-        <v>619.9286496462379</v>
+        <v>619.92864964623789</v>
       </c>
       <c r="W8">
-        <v>230.0818000113659</v>
+        <v>230.08180001136591</v>
       </c>
       <c r="X8">
         <v>1102.378715779749</v>
       </c>
       <c r="Y8">
-        <v>230.0818000113657</v>
+        <v>230.08180001136569</v>
       </c>
       <c r="Z8">
-        <v>1.000000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26">
+        <v>1.0000000000000011</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1202,19 +1291,19 @@
         <v>5</v>
       </c>
       <c r="G9">
-        <v>863.3551773428306</v>
+        <v>863.35517734283064</v>
       </c>
       <c r="H9">
-        <v>116.4639985646945</v>
+        <v>116.46399856469451</v>
       </c>
       <c r="I9">
-        <v>746.8911787781361</v>
+        <v>746.89117877813612</v>
       </c>
       <c r="J9">
         <v>0.1</v>
       </c>
       <c r="K9">
-        <v>775.9535713270766</v>
+        <v>775.95357132707659</v>
       </c>
       <c r="L9">
         <v>5</v>
@@ -1223,10 +1312,10 @@
         <v>0.1</v>
       </c>
       <c r="N9">
-        <v>0.9625462223219923</v>
+        <v>0.96254622232199227</v>
       </c>
       <c r="O9">
-        <v>979.6674177494514</v>
+        <v>979.66741774945137</v>
       </c>
       <c r="P9">
         <v>203.7138464223749</v>
@@ -1238,31 +1327,31 @@
         <v>456.0216174398542</v>
       </c>
       <c r="S9">
-        <v>4.809036965107589</v>
+        <v>4.8090369651075893</v>
       </c>
       <c r="T9">
-        <v>7.413064878270052</v>
+        <v>7.4130648782700517</v>
       </c>
       <c r="U9">
-        <v>2.003243967595013</v>
+        <v>2.0032439675950129</v>
       </c>
       <c r="V9">
-        <v>513.5853762114176</v>
+        <v>513.58537621141761</v>
       </c>
       <c r="W9">
-        <v>315.4059563350651</v>
+        <v>315.40595633506513</v>
       </c>
       <c r="X9">
         <v>1062.297135113201</v>
       </c>
       <c r="Y9">
-        <v>286.3435637861246</v>
+        <v>286.34356378612461</v>
       </c>
       <c r="Z9">
         <v>1.101494834263667</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1282,19 +1371,19 @@
         <v>5</v>
       </c>
       <c r="G10">
-        <v>859.4181633894788</v>
+        <v>859.41816338947876</v>
       </c>
       <c r="H10">
         <v>181.915383129726</v>
       </c>
       <c r="I10">
-        <v>677.5027802597527</v>
+        <v>677.50278025975274</v>
       </c>
       <c r="J10">
         <v>0.1</v>
       </c>
       <c r="K10">
-        <v>682.7561740737708</v>
+        <v>682.75617407377081</v>
       </c>
       <c r="L10">
         <v>5</v>
@@ -1306,43 +1395,43 @@
         <v>0.9923056077506075</v>
       </c>
       <c r="O10">
-        <v>877.2903603115437</v>
+        <v>877.29036031154374</v>
       </c>
       <c r="P10">
-        <v>194.5341862377728</v>
+        <v>194.53418623777279</v>
       </c>
       <c r="Q10">
         <v>1.506230108837336</v>
       </c>
       <c r="R10">
-        <v>389.7429255642678</v>
+        <v>389.74292556426781</v>
       </c>
       <c r="S10">
-        <v>4.509697638641572</v>
+        <v>4.5096976386415717</v>
       </c>
       <c r="T10">
-        <v>4.724274267540187</v>
+        <v>4.7242742675401868</v>
       </c>
       <c r="U10">
         <v>1.552713954977524</v>
       </c>
       <c r="V10">
-        <v>395.0402262491443</v>
+        <v>395.04022624914433</v>
       </c>
       <c r="W10">
         <v>289.2956152367376</v>
       </c>
       <c r="X10">
-        <v>966.7983954964903</v>
+        <v>966.79839549649034</v>
       </c>
       <c r="Y10">
-        <v>284.0422214227195</v>
+        <v>284.04222142271948</v>
       </c>
       <c r="Z10">
         <v>1.018495115929261</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1362,19 +1451,19 @@
         <v>5</v>
       </c>
       <c r="G11">
-        <v>877.922661370961</v>
+        <v>877.92266137096101</v>
       </c>
       <c r="H11">
         <v>125.6493745039628</v>
       </c>
       <c r="I11">
-        <v>752.2732868669982</v>
+        <v>752.27328686699821</v>
       </c>
       <c r="J11">
         <v>0.1</v>
       </c>
       <c r="K11">
-        <v>752.2732868669984</v>
+        <v>752.27328686699843</v>
       </c>
       <c r="L11">
         <v>5</v>
@@ -1383,25 +1472,25 @@
         <v>0.1</v>
       </c>
       <c r="N11">
-        <v>0.9999999999999997</v>
+        <v>0.99999999999999967</v>
       </c>
       <c r="O11">
-        <v>877.9226613709614</v>
+        <v>877.92266137096135</v>
       </c>
       <c r="P11">
         <v>125.6493745039628</v>
       </c>
       <c r="Q11">
-        <v>1.94406321886156</v>
+        <v>1.9440632188615601</v>
       </c>
       <c r="R11">
-        <v>508.0029594208831</v>
+        <v>508.00295942088309</v>
       </c>
       <c r="S11">
-        <v>6.987083420325925</v>
+        <v>6.9870834203259253</v>
       </c>
       <c r="T11">
-        <v>6.987083420325923</v>
+        <v>6.9870834203259227</v>
       </c>
       <c r="U11">
         <v>1.944063218861559</v>
@@ -1410,19 +1499,19 @@
         <v>508.0029594208828</v>
       </c>
       <c r="W11">
-        <v>266.5096266442035</v>
+        <v>266.50962664420348</v>
       </c>
       <c r="X11">
         <v>1018.782913511202</v>
       </c>
       <c r="Y11">
-        <v>266.5096266442033</v>
+        <v>266.50962664420331</v>
       </c>
       <c r="Z11">
-        <v>1.000000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26">
+        <v>1.0000000000000011</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1442,19 +1531,19 @@
         <v>4</v>
       </c>
       <c r="G12">
-        <v>862.8958201944828</v>
+        <v>862.89582019448278</v>
       </c>
       <c r="H12">
         <v>114.5512528823436</v>
       </c>
       <c r="I12">
-        <v>748.3445673121391</v>
+        <v>748.34456731213913</v>
       </c>
       <c r="J12">
         <v>0.08</v>
       </c>
       <c r="K12">
-        <v>779.33574134013</v>
+        <v>779.33574134012997</v>
       </c>
       <c r="L12">
         <v>5</v>
@@ -1463,25 +1552,25 @@
         <v>0.1</v>
       </c>
       <c r="N12">
-        <v>0.9602338602170368</v>
+        <v>0.96023386021703683</v>
       </c>
       <c r="O12">
-        <v>907.3184647118813</v>
+        <v>907.31846471188135</v>
       </c>
       <c r="P12">
-        <v>127.9827233717513</v>
+        <v>127.98272337175131</v>
       </c>
       <c r="Q12">
-        <v>1.95859822609192</v>
+        <v>1.9585982260919199</v>
       </c>
       <c r="R12">
-        <v>528.6690063738051</v>
+        <v>528.66900637380513</v>
       </c>
       <c r="S12">
-        <v>7.089382385436465</v>
+        <v>7.0893823854364646</v>
       </c>
       <c r="T12">
-        <v>7.532836162698013</v>
+        <v>7.5328361626980129</v>
       </c>
       <c r="U12">
         <v>2.019271619330258</v>
@@ -1490,19 +1579,19 @@
         <v>517.0344734080993</v>
       </c>
       <c r="W12">
-        <v>231.5772233349562</v>
+        <v>231.57722333495619</v>
       </c>
       <c r="X12">
-        <v>979.9217906470953</v>
+        <v>979.92179064709535</v>
       </c>
       <c r="Y12">
-        <v>200.5860493069654</v>
+        <v>200.58604930696541</v>
       </c>
       <c r="Z12">
         <v>1.154503137855633</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1525,16 +1614,16 @@
         <v>1000.727124447637</v>
       </c>
       <c r="H13">
-        <v>126.5623919776662</v>
+        <v>126.56239197766619</v>
       </c>
       <c r="I13">
-        <v>874.1647324699703</v>
+        <v>874.16473246997032</v>
       </c>
       <c r="J13">
         <v>0.1</v>
       </c>
       <c r="K13">
-        <v>878.806259992645</v>
+        <v>878.80625999264498</v>
       </c>
       <c r="L13">
         <v>5</v>
@@ -1543,31 +1632,31 @@
         <v>0.1</v>
       </c>
       <c r="N13">
-        <v>0.9947183722579382</v>
+        <v>0.99471837225793824</v>
       </c>
       <c r="O13">
         <v>1010.403077700276</v>
       </c>
       <c r="P13">
-        <v>131.5968177076315</v>
+        <v>131.59681770763149</v>
       </c>
       <c r="Q13">
-        <v>2.038361780007407</v>
+        <v>2.0383617800074072</v>
       </c>
       <c r="R13">
-        <v>610.5643364068067</v>
+        <v>610.56433640680666</v>
       </c>
       <c r="S13">
-        <v>7.678020603393978</v>
+        <v>7.6780206033939784</v>
       </c>
       <c r="T13">
-        <v>7.906986497412512</v>
+        <v>7.9069864974125119</v>
       </c>
       <c r="U13">
-        <v>2.067746735412172</v>
+        <v>2.0677467354121721</v>
       </c>
       <c r="V13">
-        <v>612.4657596321953</v>
+        <v>612.46575963219527</v>
       </c>
       <c r="W13">
         <v>200.2253152086993</v>
@@ -1576,13 +1665,13 @@
         <v>1074.39004767867</v>
       </c>
       <c r="Y13">
-        <v>195.5837876860246</v>
+        <v>195.58378768602461</v>
       </c>
       <c r="Z13">
         <v>1.023731657810645</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1602,19 +1691,19 @@
         <v>5</v>
       </c>
       <c r="G14">
-        <v>961.759224422501</v>
+        <v>961.75922442250101</v>
       </c>
       <c r="H14">
-        <v>146.2449079632325</v>
+        <v>146.24490796323249</v>
       </c>
       <c r="I14">
-        <v>815.5143164592685</v>
+        <v>815.51431645926846</v>
       </c>
       <c r="J14">
         <v>0.1</v>
       </c>
       <c r="K14">
-        <v>844.5454654022458</v>
+        <v>844.54546540224578</v>
       </c>
       <c r="L14">
         <v>5</v>
@@ -1623,46 +1712,46 @@
         <v>0.1</v>
       </c>
       <c r="N14">
-        <v>0.9656251201003724</v>
+        <v>0.96562512010037238</v>
       </c>
       <c r="O14">
-        <v>1041.684261489453</v>
+        <v>1041.6842614894531</v>
       </c>
       <c r="P14">
-        <v>197.1387960872069</v>
+        <v>197.13879608720691</v>
       </c>
       <c r="Q14">
-        <v>1.664686135063498</v>
+        <v>1.6646861350634981</v>
       </c>
       <c r="R14">
-        <v>516.3712448727624</v>
+        <v>516.37124487276242</v>
       </c>
       <c r="S14">
-        <v>5.284014522583623</v>
+        <v>5.2840145225836226</v>
       </c>
       <c r="T14">
-        <v>6.576360420455099</v>
+        <v>6.5763604204550994</v>
       </c>
       <c r="U14">
-        <v>1.883481464715317</v>
+        <v>1.8834814647153171</v>
       </c>
       <c r="V14">
-        <v>540.0647430015226</v>
+        <v>540.06474300152263</v>
       </c>
       <c r="W14">
-        <v>249.345085413662</v>
+        <v>249.34508541366199</v>
       </c>
       <c r="X14">
         <v>1064.85940187293</v>
       </c>
       <c r="Y14">
-        <v>220.3139364706847</v>
+        <v>220.31393647068469</v>
       </c>
       <c r="Z14">
         <v>1.131771731775308</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1682,19 +1771,19 @@
         <v>5</v>
       </c>
       <c r="G15">
-        <v>1044.96838250655</v>
+        <v>1044.9683825065499</v>
       </c>
       <c r="H15">
-        <v>142.8627227836758</v>
+        <v>142.86272278367579</v>
       </c>
       <c r="I15">
-        <v>902.105659722874</v>
+        <v>902.10565972287395</v>
       </c>
       <c r="J15">
         <v>0.1</v>
       </c>
       <c r="K15">
-        <v>932.0057660290917</v>
+        <v>932.00576602909166</v>
       </c>
       <c r="L15">
         <v>5</v>
@@ -1703,46 +1792,46 @@
         <v>0.1</v>
       </c>
       <c r="N15">
-        <v>0.9679185393523795</v>
+        <v>0.96791853935237948</v>
       </c>
       <c r="O15">
-        <v>1095.641849524988</v>
+        <v>1095.6418495249879</v>
       </c>
       <c r="P15">
         <v>163.636083495897</v>
       </c>
       <c r="Q15">
-        <v>1.901450675358476</v>
+        <v>1.9014506753584759</v>
       </c>
       <c r="R15">
-        <v>620.8598245528021</v>
+        <v>620.85982455280214</v>
       </c>
       <c r="S15">
-        <v>6.695600543094523</v>
+        <v>6.6956005430945229</v>
       </c>
       <c r="T15">
-        <v>7.314492977211779</v>
+        <v>7.3144929772117786</v>
       </c>
       <c r="U15">
-        <v>1.989857719316844</v>
+        <v>1.9898577193168441</v>
       </c>
       <c r="V15">
-        <v>617.8291679891543</v>
+        <v>617.82916798915426</v>
       </c>
       <c r="W15">
-        <v>245.4431134811475</v>
+        <v>245.44311348114749</v>
       </c>
       <c r="X15">
         <v>1147.548773204021</v>
       </c>
       <c r="Y15">
-        <v>215.5430071749298</v>
+        <v>215.54300717492981</v>
       </c>
       <c r="Z15">
         <v>1.138719908839128</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1762,19 +1851,19 @@
         <v>5</v>
       </c>
       <c r="G16">
-        <v>956.1487680880467</v>
+        <v>956.14876808804672</v>
       </c>
       <c r="H16">
-        <v>206.3906298598617</v>
+        <v>206.39062985986169</v>
       </c>
       <c r="I16">
-        <v>749.758138228185</v>
+        <v>749.75813822818498</v>
       </c>
       <c r="J16">
         <v>0.1</v>
       </c>
       <c r="K16">
-        <v>780.9453305191142</v>
+        <v>780.94533051911424</v>
       </c>
       <c r="L16">
         <v>5</v>
@@ -1789,7 +1878,7 @@
         <v>1028.066037583965</v>
       </c>
       <c r="P16">
-        <v>247.1207070648504</v>
+        <v>247.12070706485039</v>
       </c>
       <c r="Q16">
         <v>1.425557773019891</v>
@@ -1798,31 +1887,31 @@
         <v>428.660485688645</v>
       </c>
       <c r="S16">
-        <v>4.160177630578628</v>
+        <v>4.1601776305786284</v>
       </c>
       <c r="T16">
-        <v>4.632714037150172</v>
+        <v>4.6327140371501718</v>
       </c>
       <c r="U16">
         <v>1.533142881488377</v>
       </c>
       <c r="V16">
-        <v>433.3318132526355</v>
+        <v>433.33181325263553</v>
       </c>
       <c r="W16">
-        <v>298.4989075789375</v>
+        <v>298.49890757893752</v>
       </c>
       <c r="X16">
         <v>1048.257045807122</v>
       </c>
       <c r="Y16">
-        <v>267.3117152880083</v>
+        <v>267.31171528800832</v>
       </c>
       <c r="Z16">
-        <v>1.116669754849044</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26">
+        <v>1.1166697548490441</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1845,16 +1934,16 @@
         <v>1029.721219445428</v>
       </c>
       <c r="H17">
-        <v>129.047148405853</v>
+        <v>129.04714840585299</v>
       </c>
       <c r="I17">
-        <v>900.674071039575</v>
+        <v>900.67407103957498</v>
       </c>
       <c r="J17">
         <v>0.1</v>
       </c>
       <c r="K17">
-        <v>909.1310308272384</v>
+        <v>909.13103082723842</v>
       </c>
       <c r="L17">
         <v>5</v>
@@ -1863,46 +1952,46 @@
         <v>0.1</v>
       </c>
       <c r="N17">
-        <v>0.9906977547780232</v>
+        <v>0.99069775477802324</v>
       </c>
       <c r="O17">
         <v>1052.346607257195</v>
       </c>
       <c r="P17">
-        <v>143.2155764299567</v>
+        <v>143.21557642995671</v>
       </c>
       <c r="Q17">
         <v>1.994426791048608</v>
       </c>
       <c r="R17">
-        <v>623.4980482998632</v>
+        <v>623.49804829986317</v>
       </c>
       <c r="S17">
-        <v>7.347989886923177</v>
+        <v>7.3479898869231768</v>
       </c>
       <c r="T17">
-        <v>7.979418624632888</v>
+        <v>7.9794186246328884</v>
       </c>
       <c r="U17">
         <v>2.076865554751703</v>
       </c>
       <c r="V17">
-        <v>632.6604935765278</v>
+        <v>632.66049357652776</v>
       </c>
       <c r="W17">
-        <v>216.2169890549362</v>
+        <v>216.21698905493619</v>
       </c>
       <c r="X17">
         <v>1116.891060094511</v>
       </c>
       <c r="Y17">
-        <v>207.7600292672728</v>
+        <v>207.76002926727281</v>
       </c>
       <c r="Z17">
-        <v>1.040705422585323</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26">
+        <v>1.0407054225853229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1922,19 +2011,19 @@
         <v>5</v>
       </c>
       <c r="G18">
-        <v>948.7061235429095</v>
+        <v>948.70612354290949</v>
       </c>
       <c r="H18">
         <v>114.4511249471861</v>
       </c>
       <c r="I18">
-        <v>834.2549985957235</v>
+        <v>834.25499859572346</v>
       </c>
       <c r="J18">
         <v>0.1</v>
       </c>
       <c r="K18">
-        <v>834.2549985957237</v>
+        <v>834.25499859572369</v>
       </c>
       <c r="L18">
         <v>5</v>
@@ -1943,46 +2032,46 @@
         <v>0.1</v>
       </c>
       <c r="N18">
-        <v>0.9999999999999998</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="O18">
-        <v>948.7061235429094</v>
+        <v>948.70612354290938</v>
       </c>
       <c r="P18">
         <v>114.4511249471861</v>
       </c>
       <c r="Q18">
-        <v>2.114951205536611</v>
+        <v>2.1149512055366109</v>
       </c>
       <c r="R18">
-        <v>592.1964539136509</v>
+        <v>592.19645391365088</v>
       </c>
       <c r="S18">
-        <v>8.289181290098229</v>
+        <v>8.2891812900982291</v>
       </c>
       <c r="T18">
-        <v>8.289181290098229</v>
+        <v>8.2891812900982291</v>
       </c>
       <c r="U18">
-        <v>2.114951205536611</v>
+        <v>2.1149512055366109</v>
       </c>
       <c r="V18">
-        <v>592.1964539136509</v>
+        <v>592.19645391365088</v>
       </c>
       <c r="W18">
-        <v>278.7661380754369</v>
+        <v>278.76613807543691</v>
       </c>
       <c r="X18">
-        <v>1113.02113667116</v>
+        <v>1113.0211366711601</v>
       </c>
       <c r="Y18">
-        <v>278.7661380754366</v>
+        <v>278.76613807543657</v>
       </c>
       <c r="Z18">
-        <v>1.000000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26">
+        <v>1.0000000000000011</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2008,13 +2097,13 @@
         <v>133.2236909711622</v>
       </c>
       <c r="I19">
-        <v>777.4324779739608</v>
+        <v>777.43247797396077</v>
       </c>
       <c r="J19">
         <v>0.1</v>
       </c>
       <c r="K19">
-        <v>787.2133246551072</v>
+        <v>787.21332465510716</v>
       </c>
       <c r="L19">
         <v>5</v>
@@ -2023,37 +2112,37 @@
         <v>0.1</v>
       </c>
       <c r="N19">
-        <v>0.987575354259366</v>
+        <v>0.98757535425936605</v>
       </c>
       <c r="O19">
-        <v>955.0233123213148</v>
+        <v>955.02331232131485</v>
       </c>
       <c r="P19">
-        <v>167.8099876662077</v>
+        <v>167.80998766620769</v>
       </c>
       <c r="Q19">
-        <v>1.738903437475937</v>
+        <v>1.7389034374759369</v>
       </c>
       <c r="R19">
-        <v>495.407960259544</v>
+        <v>495.40796025954398</v>
       </c>
       <c r="S19">
-        <v>5.691099353519768</v>
+        <v>5.6910993535197676</v>
       </c>
       <c r="T19">
-        <v>6.83554225458477</v>
+        <v>6.8355422545847704</v>
       </c>
       <c r="U19">
-        <v>1.922135802008544</v>
+        <v>1.9221358020085439</v>
       </c>
       <c r="V19">
-        <v>521.3584518825676</v>
+        <v>521.35845188256758</v>
       </c>
       <c r="W19">
-        <v>264.4171451804679</v>
+        <v>264.41714518046791</v>
       </c>
       <c r="X19">
-        <v>1041.849623154429</v>
+        <v>1041.8496231544291</v>
       </c>
       <c r="Y19">
         <v>254.6362984993215</v>
@@ -2062,7 +2151,7 @@
         <v>1.038411046417141</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2085,16 +2174,16 @@
         <v>998.444561367814</v>
       </c>
       <c r="H20">
-        <v>143.6211987556318</v>
+        <v>143.62119875563181</v>
       </c>
       <c r="I20">
-        <v>854.8233626121821</v>
+        <v>854.82336261218211</v>
       </c>
       <c r="J20">
         <v>0.1</v>
       </c>
       <c r="K20">
-        <v>879.1030524340025</v>
+        <v>879.10305243400251</v>
       </c>
       <c r="L20">
         <v>5</v>
@@ -2103,46 +2192,46 @@
         <v>0.1</v>
       </c>
       <c r="N20">
-        <v>0.9723812927795025</v>
+        <v>0.97238129277950247</v>
       </c>
       <c r="O20">
         <v>1027.540691428226</v>
       </c>
       <c r="P20">
-        <v>148.4376389942236</v>
+        <v>148.43763899422359</v>
       </c>
       <c r="Q20">
         <v>1.934758617338814</v>
       </c>
       <c r="R20">
-        <v>591.9120512525005</v>
+        <v>591.91205125250053</v>
       </c>
       <c r="S20">
-        <v>6.922372912898546</v>
+        <v>6.9223729128985463</v>
       </c>
       <c r="T20">
-        <v>6.951930286187379</v>
+        <v>6.9519302861873786</v>
       </c>
       <c r="U20">
-        <v>1.939019360034126</v>
+        <v>1.9390193600341259</v>
       </c>
       <c r="V20">
-        <v>576.3390777137029</v>
+        <v>576.33907771370286</v>
       </c>
       <c r="W20">
         <v>209.7128561382506</v>
       </c>
       <c r="X20">
-        <v>1064.536218750433</v>
+        <v>1064.5362187504329</v>
       </c>
       <c r="Y20">
         <v>185.4331663164302</v>
       </c>
       <c r="Z20">
-        <v>1.130934990240034</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26">
+        <v>1.1309349902400341</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2162,19 +2251,19 @@
         <v>5</v>
       </c>
       <c r="G21">
-        <v>863.1748194919825</v>
+        <v>863.17481949198248</v>
       </c>
       <c r="H21">
-        <v>141.467794716689</v>
+        <v>141.46779471668901</v>
       </c>
       <c r="I21">
-        <v>721.7070247752935</v>
+        <v>721.70702477529346</v>
       </c>
       <c r="J21">
         <v>0.1</v>
       </c>
       <c r="K21">
-        <v>743.7606768681932</v>
+        <v>743.76067686819317</v>
       </c>
       <c r="L21">
         <v>5</v>
@@ -2183,46 +2272,46 @@
         <v>0.1</v>
       </c>
       <c r="N21">
-        <v>0.9703484564608033</v>
+        <v>0.97034845646080325</v>
       </c>
       <c r="O21">
-        <v>912.6283812662734</v>
+        <v>912.62838126627344</v>
       </c>
       <c r="P21">
-        <v>168.8677043980802</v>
+        <v>168.86770439808021</v>
       </c>
       <c r="Q21">
         <v>1.687213173207651</v>
       </c>
       <c r="R21">
-        <v>458.8448614784166</v>
+        <v>458.84486147841659</v>
       </c>
       <c r="S21">
-        <v>5.404398576502759</v>
+        <v>5.4043985765027589</v>
       </c>
       <c r="T21">
-        <v>6.101564113730778</v>
+        <v>6.1015641137307783</v>
       </c>
       <c r="U21">
-        <v>1.808545150398318</v>
+        <v>1.8085451503983181</v>
       </c>
       <c r="V21">
-        <v>465.8561307028808</v>
+        <v>465.85613070288082</v>
       </c>
       <c r="W21">
-        <v>275.5109384653354</v>
+        <v>275.51093846533541</v>
       </c>
       <c r="X21">
-        <v>997.2179632406288</v>
+        <v>997.21796324062882</v>
       </c>
       <c r="Y21">
-        <v>253.4572863724356</v>
+        <v>253.45728637243559</v>
       </c>
       <c r="Z21">
-        <v>1.087011316220334</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26">
+        <v>1.0870113162203341</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2245,10 +2334,10 @@
         <v>1015.900289673529</v>
       </c>
       <c r="H22">
-        <v>34.3438442757561</v>
+        <v>34.343844275756098</v>
       </c>
       <c r="I22">
-        <v>981.5564453977724</v>
+        <v>981.55644539777245</v>
       </c>
       <c r="J22">
         <v>0.1</v>
@@ -2263,46 +2352,46 @@
         <v>0.1</v>
       </c>
       <c r="N22">
-        <v>0.9808410583465061</v>
+        <v>0.98084105834650614</v>
       </c>
       <c r="O22">
         <v>1036.769731819194</v>
       </c>
       <c r="P22">
-        <v>36.04037098628621</v>
+        <v>36.040370986286213</v>
       </c>
       <c r="Q22">
         <v>3.359225404900346</v>
       </c>
       <c r="R22">
-        <v>879.6616310137418</v>
+        <v>879.66163101374184</v>
       </c>
       <c r="S22">
-        <v>28.7668995475573</v>
+        <v>28.766899547557301</v>
       </c>
       <c r="T22">
-        <v>29.58027300370301</v>
+        <v>29.580273003703009</v>
       </c>
       <c r="U22">
-        <v>3.387107686574175</v>
+        <v>3.3871076865741752</v>
       </c>
       <c r="V22">
-        <v>865.2301464648525</v>
+        <v>865.23014646485251</v>
       </c>
       <c r="W22">
-        <v>55.21328642142225</v>
+        <v>55.213286421422247</v>
       </c>
       <c r="X22">
-        <v>1036.769731819195</v>
+        <v>1036.7697318191949</v>
       </c>
       <c r="Y22">
-        <v>36.04037098628635</v>
+        <v>36.040370986286348</v>
       </c>
       <c r="Z22">
         <v>1.531984408330074</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2325,16 +2414,16 @@
         <v>1022.390911310949</v>
       </c>
       <c r="H23">
-        <v>38.27246824741735</v>
+        <v>38.272468247417351</v>
       </c>
       <c r="I23">
-        <v>984.1184430635312</v>
+        <v>984.11844306353123</v>
       </c>
       <c r="J23">
         <v>0.1</v>
       </c>
       <c r="K23">
-        <v>984.1184430635315</v>
+        <v>984.11844306353146</v>
       </c>
       <c r="L23">
         <v>5</v>
@@ -2343,46 +2432,46 @@
         <v>0.1</v>
       </c>
       <c r="N23">
-        <v>0.9999999999999998</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="O23">
         <v>1022.390911310949</v>
       </c>
       <c r="P23">
-        <v>38.27246824741734</v>
+        <v>38.272468247417343</v>
       </c>
       <c r="Q23">
         <v>3.285168401042013</v>
       </c>
       <c r="R23">
-        <v>858.3869397472324</v>
+        <v>858.38693974723242</v>
       </c>
       <c r="S23">
-        <v>26.71348251441663</v>
+        <v>26.713482514416629</v>
       </c>
       <c r="T23">
-        <v>26.71348251441662</v>
+        <v>26.713482514416619</v>
       </c>
       <c r="U23">
         <v>3.285168401042013</v>
       </c>
       <c r="V23">
-        <v>858.386939747232</v>
+        <v>858.38693974723196</v>
       </c>
       <c r="W23">
-        <v>42.78941570683151</v>
+        <v>42.789415706831512</v>
       </c>
       <c r="X23">
         <v>1026.907858770363</v>
       </c>
       <c r="Y23">
-        <v>42.78941570683128</v>
+        <v>42.789415706831278</v>
       </c>
       <c r="Z23">
-        <v>1.000000000000005</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26">
+        <v>1.0000000000000051</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2402,19 +2491,19 @@
         <v>5</v>
       </c>
       <c r="G24">
-        <v>984.9280467805963</v>
+        <v>984.92804678059633</v>
       </c>
       <c r="H24">
-        <v>41.98061095380996</v>
+        <v>41.980610953809958</v>
       </c>
       <c r="I24">
-        <v>942.9474358267864</v>
+        <v>942.94743582678643</v>
       </c>
       <c r="J24">
         <v>0.1</v>
       </c>
       <c r="K24">
-        <v>965.2294065297751</v>
+        <v>965.22940652977513</v>
       </c>
       <c r="L24">
         <v>5</v>
@@ -2423,16 +2512,16 @@
         <v>0.1</v>
       </c>
       <c r="N24">
-        <v>0.9769153627601364</v>
+        <v>0.97691536276013635</v>
       </c>
       <c r="O24">
         <v>1023.306255524124</v>
       </c>
       <c r="P24">
-        <v>58.07684899434899</v>
+        <v>58.076848994348993</v>
       </c>
       <c r="Q24">
-        <v>2.869026974970488</v>
+        <v>2.8690269749704882</v>
       </c>
       <c r="R24">
         <v>798.6053601437003</v>
@@ -2441,28 +2530,28 @@
         <v>17.61986528614344</v>
       </c>
       <c r="T24">
-        <v>23.46149863955729</v>
+        <v>23.461498639557291</v>
       </c>
       <c r="U24">
-        <v>3.15536072181409</v>
+        <v>3.1553607218140902</v>
       </c>
       <c r="V24">
-        <v>810.4834649453762</v>
+        <v>810.48346494537623</v>
       </c>
       <c r="W24">
-        <v>102.9291612633888</v>
+        <v>102.92916126338881</v>
       </c>
       <c r="X24">
         <v>1045.876597090175</v>
       </c>
       <c r="Y24">
-        <v>80.64719056040008</v>
+        <v>80.647190560400077</v>
       </c>
       <c r="Z24">
-        <v>1.276289484458864</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26">
+        <v>1.2762894844588639</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2482,19 +2571,19 @@
         <v>5</v>
       </c>
       <c r="G25">
-        <v>997.7562766898913</v>
+        <v>997.75627668989125</v>
       </c>
       <c r="H25">
-        <v>42.09016870083371</v>
+        <v>42.090168700833708</v>
       </c>
       <c r="I25">
-        <v>955.6661079890575</v>
+        <v>955.66610798905754</v>
       </c>
       <c r="J25">
         <v>0.1</v>
       </c>
       <c r="K25">
-        <v>959.3909234840939</v>
+        <v>959.39092348409395</v>
       </c>
       <c r="L25">
         <v>5</v>
@@ -2503,46 +2592,46 @@
         <v>0.1</v>
       </c>
       <c r="N25">
-        <v>0.9961175206020195</v>
+        <v>0.99611752060201952</v>
       </c>
       <c r="O25">
-        <v>997.8073086360793</v>
+        <v>997.80730863607926</v>
       </c>
       <c r="P25">
-        <v>38.41638515198547</v>
+        <v>38.416385151985473</v>
       </c>
       <c r="Q25">
-        <v>3.257076114899807</v>
+        <v>3.2570761148998071</v>
       </c>
       <c r="R25">
-        <v>834.2658329847703</v>
+        <v>834.26583298477033</v>
       </c>
       <c r="S25">
-        <v>25.97348253065683</v>
+        <v>25.973482530656831</v>
       </c>
       <c r="T25">
-        <v>23.70520973155729</v>
+        <v>23.705209731557289</v>
       </c>
       <c r="U25">
-        <v>3.165694843881164</v>
+        <v>3.1656948438811638</v>
       </c>
       <c r="V25">
-        <v>822.4214779547399</v>
+        <v>822.42147795473988</v>
       </c>
       <c r="W25">
-        <v>69.43507755006294</v>
+        <v>69.435077550062942</v>
       </c>
       <c r="X25">
         <v>1025.10118553912</v>
       </c>
       <c r="Y25">
-        <v>65.71026205502653</v>
+        <v>65.710262055026533</v>
       </c>
       <c r="Z25">
         <v>1.05668544575149</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2562,19 +2651,19 @@
         <v>5</v>
       </c>
       <c r="G26">
-        <v>980.190312510621</v>
+        <v>980.19031251062097</v>
       </c>
       <c r="H26">
-        <v>24.72405429170997</v>
+        <v>24.724054291709969</v>
       </c>
       <c r="I26">
-        <v>955.466258218911</v>
+        <v>955.46625821891098</v>
       </c>
       <c r="J26">
         <v>0.1</v>
       </c>
       <c r="K26">
-        <v>958.7965423827778</v>
+        <v>958.79654238277783</v>
       </c>
       <c r="L26">
         <v>5</v>
@@ -2583,46 +2672,46 @@
         <v>0.1</v>
       </c>
       <c r="N26">
-        <v>0.9965265997355492</v>
+        <v>0.99652659973554925</v>
       </c>
       <c r="O26">
-        <v>998.7501822846477</v>
+        <v>998.75018228464774</v>
       </c>
       <c r="P26">
-        <v>39.95363990186998</v>
+        <v>39.953639901869977</v>
       </c>
       <c r="Q26">
         <v>3.218784900095323</v>
       </c>
       <c r="R26">
-        <v>830.1943695627926</v>
+        <v>830.19436956279264</v>
       </c>
       <c r="S26">
         <v>24.99772698401636</v>
       </c>
       <c r="T26">
-        <v>39.64520951724656</v>
+        <v>39.645209517246563</v>
       </c>
       <c r="U26">
-        <v>3.679970121544464</v>
+        <v>3.6799701215444638</v>
       </c>
       <c r="V26">
         <v>864.4824771419751</v>
       </c>
       <c r="W26">
-        <v>48.26836123677356</v>
+        <v>48.268361236773558</v>
       </c>
       <c r="X26">
         <v>1003.734619455685</v>
       </c>
       <c r="Y26">
-        <v>44.93807707290671</v>
+        <v>44.938077072906708</v>
       </c>
       <c r="Z26">
         <v>1.074108292583678</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2645,16 +2734,16 @@
         <v>1043.843364779985</v>
       </c>
       <c r="H27">
-        <v>44.08737961182902</v>
+        <v>44.087379611829022</v>
       </c>
       <c r="I27">
-        <v>999.7559851681563</v>
+        <v>999.75598516815626</v>
       </c>
       <c r="J27">
         <v>0.1</v>
       </c>
       <c r="K27">
-        <v>1024.121202969384</v>
+        <v>1024.1212029693841</v>
       </c>
       <c r="L27">
         <v>5</v>
@@ -2663,13 +2752,13 @@
         <v>0.1</v>
       </c>
       <c r="N27">
-        <v>0.9762086579883492</v>
+        <v>0.97620865798834922</v>
       </c>
       <c r="O27">
-        <v>1062.715931400235</v>
+        <v>1062.7159314002349</v>
       </c>
       <c r="P27">
-        <v>38.59472843085153</v>
+        <v>38.594728430851532</v>
       </c>
       <c r="Q27">
         <v>3.315467411707961</v>
@@ -2678,7 +2767,7 @@
         <v>896.1616385931768</v>
       </c>
       <c r="S27">
-        <v>27.5352612806761</v>
+        <v>27.535261280676099</v>
       </c>
       <c r="T27">
         <v>23.67669328435009</v>
@@ -2687,22 +2776,22 @@
         <v>3.164491158556805</v>
       </c>
       <c r="V27">
-        <v>860.2418621825858</v>
+        <v>860.24186218258581</v>
       </c>
       <c r="W27">
-        <v>80.20445116707583</v>
+        <v>80.204451167075831</v>
       </c>
       <c r="X27">
-        <v>1079.960436335232</v>
+        <v>1079.9604363352321</v>
       </c>
       <c r="Y27">
-        <v>55.83923336584803</v>
+        <v>55.839233365848031</v>
       </c>
       <c r="Z27">
-        <v>1.436345850982436</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26">
+        <v>1.4363458509824361</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2728,13 +2817,13 @@
         <v>45.63756116147691</v>
       </c>
       <c r="I28">
-        <v>988.6479412071885</v>
+        <v>988.64794120718852</v>
       </c>
       <c r="J28">
         <v>0.08</v>
       </c>
       <c r="K28">
-        <v>1008.36401857119</v>
+        <v>1008.3640185711899</v>
       </c>
       <c r="L28">
         <v>4</v>
@@ -2743,46 +2832,46 @@
         <v>0.08</v>
       </c>
       <c r="N28">
-        <v>0.980447460439992</v>
+        <v>0.98044746043999198</v>
       </c>
       <c r="O28">
-        <v>1050.433754446795</v>
+        <v>1050.4337544467951</v>
       </c>
       <c r="P28">
-        <v>42.06973587560447</v>
+        <v>42.069735875604472</v>
       </c>
       <c r="Q28">
-        <v>3.217629837952286</v>
+        <v>3.2176298379522859</v>
       </c>
       <c r="R28">
-        <v>872.9991811430734</v>
+        <v>872.99918114307343</v>
       </c>
       <c r="S28">
-        <v>24.96886972508718</v>
+        <v>24.968869725087181</v>
       </c>
       <c r="T28">
-        <v>22.6630318545969</v>
+        <v>22.663031854596898</v>
       </c>
       <c r="U28">
         <v>3.120735044293041</v>
       </c>
       <c r="V28">
-        <v>846.2252047545005</v>
+        <v>846.22520475450051</v>
       </c>
       <c r="W28">
-        <v>69.76480994291387</v>
+        <v>69.764809942913871</v>
       </c>
       <c r="X28">
-        <v>1058.412751150102</v>
+        <v>1058.4127511501019</v>
       </c>
       <c r="Y28">
-        <v>50.048732578912</v>
+        <v>50.048732578912002</v>
       </c>
       <c r="Z28">
         <v>1.393937595380971</v>
       </c>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2805,16 +2894,16 @@
         <v>971.4034518179476</v>
       </c>
       <c r="H29">
-        <v>56.9603710571399</v>
+        <v>56.960371057139902</v>
       </c>
       <c r="I29">
-        <v>914.4430807608077</v>
+        <v>914.44308076080767</v>
       </c>
       <c r="J29">
         <v>0.1</v>
       </c>
       <c r="K29">
-        <v>946.7134328577694</v>
+        <v>946.71343285776936</v>
       </c>
       <c r="L29">
         <v>5</v>
@@ -2823,19 +2912,19 @@
         <v>0.1</v>
       </c>
       <c r="N29">
-        <v>0.9659132838122412</v>
+        <v>0.96591328381224117</v>
       </c>
       <c r="O29">
-        <v>991.5843171570513</v>
+        <v>991.58431715705126</v>
       </c>
       <c r="P29">
-        <v>44.87088429928183</v>
+        <v>44.870884299281833</v>
       </c>
       <c r="Q29">
-        <v>3.095514856518031</v>
+        <v>3.0955148565180308</v>
       </c>
       <c r="R29">
-        <v>807.814943884241</v>
+        <v>807.81494388424096</v>
       </c>
       <c r="S29">
         <v>22.09861322418649</v>
@@ -2844,25 +2933,25 @@
         <v>17.05402253864327</v>
       </c>
       <c r="U29">
-        <v>2.836386101923492</v>
+        <v>2.8363861019234919</v>
       </c>
       <c r="V29">
-        <v>752.8814759339309</v>
+        <v>752.88147593393091</v>
       </c>
       <c r="W29">
-        <v>77.14123639624358</v>
+        <v>77.141236396243585</v>
       </c>
       <c r="X29">
-        <v>991.5843171570513</v>
+        <v>991.58431715705126</v>
       </c>
       <c r="Y29">
-        <v>44.8708842992819</v>
+        <v>44.870884299281897</v>
       </c>
       <c r="Z29">
         <v>1.71918244092814</v>
       </c>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2882,10 +2971,10 @@
         <v>5</v>
       </c>
       <c r="G30">
-        <v>1036.10546198802</v>
+        <v>1036.1054619880199</v>
       </c>
       <c r="H30">
-        <v>20.80324367018</v>
+        <v>20.803243670179999</v>
       </c>
       <c r="I30">
         <v>1015.30221831784</v>
@@ -2903,46 +2992,46 @@
         <v>0.1</v>
       </c>
       <c r="N30">
-        <v>0.9981740086317971</v>
+        <v>0.99817400863179706</v>
       </c>
       <c r="O30">
         <v>1055.333187833389</v>
       </c>
       <c r="P30">
-        <v>38.17364497019444</v>
+        <v>38.173644970194438</v>
       </c>
       <c r="Q30">
-        <v>3.319466458641325</v>
+        <v>3.3194664586413252</v>
       </c>
       <c r="R30">
-        <v>890.4434087805516</v>
+        <v>890.44340878055164</v>
       </c>
       <c r="S30">
-        <v>27.64559655378419</v>
+        <v>27.645596553784191</v>
       </c>
       <c r="T30">
-        <v>49.8049957215665</v>
+        <v>49.804995721566499</v>
       </c>
       <c r="U30">
         <v>3.908115294693431</v>
       </c>
       <c r="V30">
-        <v>934.0007435511753</v>
+        <v>934.00074355117533</v>
       </c>
       <c r="W30">
-        <v>50.01039346772939</v>
+        <v>50.010393467729394</v>
       </c>
       <c r="X30">
         <v>1065.31261178557</v>
       </c>
       <c r="Y30">
-        <v>48.15306892237595</v>
+        <v>48.153068922375951</v>
       </c>
       <c r="Z30">
-        <v>1.038571260086195</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26">
+        <v>1.0385712600861949</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2965,7 +3054,7 @@
         <v>1165.924820934335</v>
       </c>
       <c r="H31">
-        <v>57.04111800015225</v>
+        <v>57.041118000152252</v>
       </c>
       <c r="I31">
         <v>1108.883702934183</v>
@@ -2974,7 +3063,7 @@
         <v>0.1</v>
       </c>
       <c r="K31">
-        <v>1138.749949157878</v>
+        <v>1138.7499491578781</v>
       </c>
       <c r="L31">
         <v>5</v>
@@ -2983,16 +3072,16 @@
         <v>0.1</v>
       </c>
       <c r="N31">
-        <v>0.9737727793131566</v>
+        <v>0.97377277931315664</v>
       </c>
       <c r="O31">
         <v>1178.020423444158</v>
       </c>
       <c r="P31">
-        <v>39.27047428628014</v>
+        <v>39.270474286280141</v>
       </c>
       <c r="Q31">
-        <v>3.40111775536048</v>
+        <v>3.4011177553604801</v>
       </c>
       <c r="R31">
         <v>1005.186441801383</v>
@@ -3004,25 +3093,68 @@
         <v>20.44007659406715</v>
       </c>
       <c r="U31">
-        <v>3.017497512592042</v>
+        <v>3.0174975125920418</v>
       </c>
       <c r="V31">
-        <v>936.762271253254</v>
+        <v>936.76227125325397</v>
       </c>
       <c r="W31">
-        <v>71.98827648078532</v>
+        <v>71.988276480785316</v>
       </c>
       <c r="X31">
-        <v>1180.871979414968</v>
+        <v>1180.8719794149681</v>
       </c>
       <c r="Y31">
-        <v>42.12203025709005</v>
+        <v>42.122030257090053</v>
       </c>
       <c r="Z31">
         <v>1.709040994496416</v>
       </c>
     </row>
+    <row r="32" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J32" s="2">
+        <f>AVERAGE(J2:J31)</f>
+        <v>9.8000000000000059E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="2">
+        <f>AVERAGE(N2:N31)</f>
+        <v>0.97912365804910739</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="2">
+        <f>AVERAGE(Z2:Z31)</f>
+        <v>1.1696205673521207</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="2">
+        <f>MIN(N2:N31)</f>
+        <v>0.92205208808849093</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="2">
+        <f>MAX(Z2:Z31)</f>
+        <v>1.71918244092814</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>